--- a/TestData/K_68Bus_SG_IBR_NoFbus.xlsx
+++ b/TestData/K_68Bus_SG_IBR_NoFbus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B7C8A0-B662-4F83-B9F2-BD39D7318803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B5DB5-BC23-4B09-A080-A62DBF4C0CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3298,7 +3298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I70"/>
     </sheetView>
   </sheetViews>
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3398,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3461,7 +3461,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -3482,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3503,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3524,7 +3524,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3545,7 +3545,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3566,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3587,7 +3587,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3608,7 +3608,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3629,7 +3629,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3652,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3673,7 +3673,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3694,7 +3694,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -3715,7 +3715,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3736,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -3757,7 +3757,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3778,7 +3778,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -3799,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -3820,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -3883,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3904,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -3925,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3946,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3967,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -3988,7 +3988,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -4009,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -4030,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -4051,7 +4051,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -4072,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -4093,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -4114,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -4135,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -4156,7 +4156,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -4177,7 +4177,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -4198,7 +4198,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -4219,7 +4219,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -4240,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -4261,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4282,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4303,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4324,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -4345,7 +4345,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -4366,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -4387,7 +4387,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -4431,7 +4431,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -4454,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -4475,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -4498,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -4519,7 +4519,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -4540,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -4561,7 +4561,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -4582,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -4603,7 +4603,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -4624,7 +4624,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4645,7 +4645,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -4666,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -4687,7 +4687,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4708,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -4729,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -4750,7 +4750,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -4771,7 +4771,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
